--- a/biology/Zoologie/Distichoceratinae/Distichoceratinae.xlsx
+++ b/biology/Zoologie/Distichoceratinae/Distichoceratinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Distichocertinae sont une sous-famille fossile d'ammonites de la famille des Oppeliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Distichocertinae a été créée en 1900 par le zoologiste et paléontologue américain Alpheus Hyatt (1838-1902)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Distichocertinae a été créée en 1900 par le zoologiste et paléontologue américain Alpheus Hyatt (1838-1902).
 </t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database, en 2022, cette sous-famille englobe les genres suivants[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database, en 2022, cette sous-famille englobe les genres suivants :
 †Chanasia Rollier, 1922
 †Concavites Jeannet, 1951
-†Distichoceras Munier-Chalmas, 1892[2]
+†Distichoceras Munier-Chalmas, 1892
 †Horioceras Munier-Chalmas, 1892
 †Petitclercia Rollier, 1909
 †Sindeites Spath, 1925
 †Styracoceras Hyatt, 1903
-†Subbonarellia Spath, 1928[1]</t>
+†Subbonarellia Spath, 1928</t>
         </is>
       </c>
     </row>
